--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B804018A-E76E-5A4B-9D43-40D129B80D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D053A-5817-0941-AAB0-CEEFA3237D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="CR" sheetId="3" r:id="rId1"/>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
